--- a/biology/Zoologie/Asterodiscides/Asterodiscides.xlsx
+++ b/biology/Zoologie/Asterodiscides/Asterodiscides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asterodiscides est un genre d'étoiles de mer de la famille des Asterodiscididae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont d'assez grosses étoiles en forme de coussins, constituées d'un gros disque central bombé et de cinq bras courts et pointus, terminés par deux grosses plaques lisses en forme d'ongles. Tout leur corps est couvert de plaques modifiées en gros boutons calcaires (de taille et de forme variable suivant les espècs), qui protègent cette étoile des prédateurs (et offrent éventuellement un abri pour de petits symbiotes)[1]. 
-Ce sont des étoiles d'eaux assez profondes (surtout entre les tropiques), mais certaines espèces peuvent vivre à des profondeurs qui permettent aux plongeurs de les observer. On sait encore peu de choses de leur biologie[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont d'assez grosses étoiles en forme de coussins, constituées d'un gros disque central bombé et de cinq bras courts et pointus, terminés par deux grosses plaques lisses en forme d'ongles. Tout leur corps est couvert de plaques modifiées en gros boutons calcaires (de taille et de forme variable suivant les espècs), qui protègent cette étoile des prédateurs (et offrent éventuellement un abri pour de petits symbiotes). 
+Ce sont des étoiles d'eaux assez profondes (surtout entre les tropiques), mais certaines espèces peuvent vivre à des profondeurs qui permettent aux plongeurs de les observer. On sait encore peu de choses de leur biologie. 
 </t>
         </is>
       </c>
@@ -543,15 +557,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (3 août 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (3 août 2014) :
 Asterodiscides belli Rowe, 1977 -- Océan Indien occidental (syn. Asterodiscides elegans belli)
 Asterodiscides bicornutus Lane &amp; Rowe, 2009 -- Vanuatu (105-135 m)
 Asterodiscides cherbonnieri Rowe, 1985 -- Sud de Madagascar (50-120 m)
 Asterodiscides crosnieri Rowe, 1985 -- Nord-ouest de Madagascar (150 m)
 Asterodiscides culcitulus Rowe, 1977 -- Australie occidentale (30-200 m)
-Asterodiscides elegans (Gray, 1847) -- espèce type[3] (Pacifique ouest)
+Asterodiscides elegans (Gray, 1847) -- espèce type (Pacifique ouest)
 Asterodiscides fourmanoiri Rowe, 1985 -- Sud de Madagascar (55-115 m)
 Asterodiscides grayi Rowe, 1977 -- Australie orientale (~75m)
 Asterodiscides helonotus (Fisher, 1913) -- Philippines et Japon
@@ -598,7 +614,9 @@
           <t>Référence taxonomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -634,6 +652,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
